--- a/data/02-Processed/MarketDemand/2022.03 - PMP Avg Annual Openings by State.xlsx
+++ b/data/02-Processed/MarketDemand/2022.03 - PMP Avg Annual Openings by State.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goconfluent.sharepoint.com/sites/UPADVISORS/EIM Analytics/04 - WebApps/NeedsAssessmentTool/data/02-Processed/MarketDemand/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_215406B2DEC4505766C2B0EA29C56CA7BA333B37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C9F52F-D027-4C3F-A87C-9B814DE58DE6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_215406B2DEC4505766C2B0EA29C56CA7BA333B37" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B47493-A350-4663-A2BF-0291E3584C81}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,11 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -906,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -938,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2058,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2442,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2506,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2666,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -3114,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>25</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -3370,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>27</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>32</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>32</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>32</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>33</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>34</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>34</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>35</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>35</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>37</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>37</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>37</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>37</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>37</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>38</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>38</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>38</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>38</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>39</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>39</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>39</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>39</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>40</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>41</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>41</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>41</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>41</v>
       </c>
@@ -5994,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -6090,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>43</v>
       </c>
@@ -6218,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>44</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>44</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>44</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>44</v>
       </c>
@@ -6442,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>44</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>46</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>46</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>46</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>47</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>47</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>47</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>47</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>47</v>
       </c>
@@ -6954,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>48</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>48</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>48</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>48</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>49</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>49</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>49</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>50</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>50</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>50</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>50</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>51</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>52</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>52</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>52</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>52</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>53</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>54</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>54</v>
       </c>
@@ -7946,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>54</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>54</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>54</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>55</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -8106,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>55</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>55</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -8202,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>56</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>56</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>56</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>56</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>57</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>57</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>57</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>57</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>57</v>
       </c>
@@ -8522,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>58</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>58</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>58</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>58</v>
       </c>
@@ -8682,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>59</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>59</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>59</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>59</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>59</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>60</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>60</v>
       </c>
@@ -8938,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>60</v>
       </c>
@@ -8970,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>60</v>
       </c>
@@ -9003,18 +9002,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J255" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="South"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="PT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J255" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9029,12 +9017,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042DAD6BC5FC9164E91F408CCD297BFFB" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a109d7a5736997f3eeeaecbbb1853f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5d01bc9-28ae-4456-8ca2-aef537193fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="832f38faa40e8bc86a9c7aa8ceef29b4" ns2:_="">
     <xsd:import namespace="f5d01bc9-28ae-4456-8ca2-aef537193fc0"/>
@@ -9212,6 +9194,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{866CF8A8-7656-4F4A-B35F-83949B228A17}">
   <ds:schemaRefs>
@@ -9221,15 +9209,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B90344-69D7-4139-A607-AEB177FD5D59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787B4051-74A1-4893-B79A-4FCBFF13E3BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9245,4 +9224,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B90344-69D7-4139-A607-AEB177FD5D59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>